--- a/data/trans_orig/P2C_R1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5333</v>
+        <v>6134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006123617848798567</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01892553055561723</v>
+        <v>0.02176982070411111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10421</v>
+        <v>9695</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02012855396685087</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004982189699789973</v>
+        <v>0.005060551344200389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05050071754241649</v>
+        <v>0.04698391106732016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2152</v>
+        <v>2041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12147</v>
+        <v>12641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01204416144262681</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004409005016631783</v>
+        <v>0.004181734176275823</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02488483124872622</v>
+        <v>0.02589832294129987</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>280043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276435</v>
+        <v>275634</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>281768</v>
@@ -824,7 +824,7 @@
         <v>0.9938763821512014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9810744694443826</v>
+        <v>0.9782301792958887</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>202197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195930</v>
+        <v>196656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205323</v>
+        <v>205307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9798714460331491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9494992824575835</v>
+        <v>0.9530160889326799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9950178103002101</v>
+        <v>0.9949394486557995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>465</v>
@@ -857,19 +857,19 @@
         <v>482240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>475972</v>
+        <v>475478</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>485967</v>
+        <v>486078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879558385573732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9751151687512739</v>
+        <v>0.9741016770587001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9955909949833682</v>
+        <v>0.9958182658237243</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1681</v>
+        <v>1659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14835</v>
+        <v>13448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02704901456249087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008553647647689389</v>
+        <v>0.008439867735405511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07549177531392538</v>
+        <v>0.06843344693581825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6779</v>
+        <v>7323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009697842255580347</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0303315066868138</v>
+        <v>0.03276686291567404</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>7483</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2689</v>
+        <v>2796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15522</v>
+        <v>17411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01781634563999535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006402433593091672</v>
+        <v>0.00665734939549323</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03695711560900773</v>
+        <v>0.04145300612776456</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>191202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181683</v>
+        <v>183070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>194837</v>
+        <v>194859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9729509854375091</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9245082246860745</v>
+        <v>0.9315665530641816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9914463523523106</v>
+        <v>0.9915601322645945</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>216</v>
@@ -1053,7 +1053,7 @@
         <v>221321</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216709</v>
+        <v>216165</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>223488</v>
@@ -1062,7 +1062,7 @@
         <v>0.9903021577444197</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9696684933131859</v>
+        <v>0.967233137084326</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>412523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>404484</v>
+        <v>402595</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>417317</v>
+        <v>417210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9821836543600047</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9630428843909924</v>
+        <v>0.9585469938722359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9935975664069083</v>
+        <v>0.9933426506045069</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6911</v>
+        <v>6836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005648073671278051</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02037166118626837</v>
+        <v>0.02015150099072103</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6470</v>
+        <v>6247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00912634247236808</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05130608108042959</v>
+        <v>0.04953803331040965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1220,19 +1220,19 @@
         <v>3067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8733</v>
+        <v>7966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006590652310053726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001934457441474519</v>
+        <v>0.001927351550762334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01876698476758908</v>
+        <v>0.01711824435583608</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>337333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>332338</v>
+        <v>332413</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>339249</v>
@@ -1258,7 +1258,7 @@
         <v>0.9943519263287219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9796283388137295</v>
+        <v>0.9798484990092788</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>124956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119637</v>
+        <v>119860</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>126107</v>
@@ -1279,7 +1279,7 @@
         <v>0.9908736575276319</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.94869391891957</v>
+        <v>0.9504619666895894</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>462289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>456623</v>
+        <v>457390</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>464456</v>
+        <v>464459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9934093476899463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812330152324109</v>
+        <v>0.982881755644164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9980655425585255</v>
+        <v>0.9980726484492377</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7270</v>
+        <v>7336</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002702404091476137</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009360916040703871</v>
+        <v>0.009446286076302103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1416,19 +1416,19 @@
         <v>7972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3400</v>
+        <v>3322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16492</v>
+        <v>16242</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01696288644348581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007235125392377408</v>
+        <v>0.007068423180736309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03509088089364452</v>
+        <v>0.03455889755512947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1437,19 +1437,19 @@
         <v>10071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4955</v>
+        <v>4620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18765</v>
+        <v>20131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008078827844577433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003974492547146789</v>
+        <v>0.003706412889852754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01505249264355361</v>
+        <v>0.01614880300515473</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>774520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>769349</v>
+        <v>769283</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>776619</v>
@@ -1475,7 +1475,7 @@
         <v>0.9972975959085238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.990639083959298</v>
+        <v>0.990553713923698</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>462019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>453499</v>
+        <v>453749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>466591</v>
+        <v>466669</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9830371135565142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9649091191063546</v>
+        <v>0.9654411024448705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9927648746076225</v>
+        <v>0.9929315768192634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1226</v>
@@ -1508,19 +1508,19 @@
         <v>1236539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1227845</v>
+        <v>1226479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1241655</v>
+        <v>1241990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9919211721554225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9849475073564461</v>
+        <v>0.9838511969948456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9960255074528531</v>
+        <v>0.9962935871101475</v>
       </c>
     </row>
     <row r="15">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8131</v>
+        <v>7416</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002625838429008262</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009360629273384401</v>
+        <v>0.008537886339579749</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7241</v>
+        <v>8304</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00233822845311751</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007422875471410345</v>
+        <v>0.008512903832605756</v>
       </c>
     </row>
     <row r="20">
@@ -1857,7 +1857,7 @@
         <v>866340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>860490</v>
+        <v>861205</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>868621</v>
@@ -1866,7 +1866,7 @@
         <v>0.9973741615709918</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9906393707266158</v>
+        <v>0.991462113660421</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>973183</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>968223</v>
+        <v>967160</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>975464</v>
@@ -1887,7 +1887,7 @@
         <v>0.9976617715468825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9925771245285907</v>
+        <v>0.9914870961673941</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1982,19 +1982,19 @@
         <v>11056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5116</v>
+        <v>5407</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19910</v>
+        <v>20814</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005793902448396131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002681130931378838</v>
+        <v>0.002833680912856866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01043398823515026</v>
+        <v>0.01090750105739428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2003,19 +2003,19 @@
         <v>17725</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10606</v>
+        <v>10786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29231</v>
+        <v>29496</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00770557822319906</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004610851717832265</v>
+        <v>0.004689099741670292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01270774744162246</v>
+        <v>0.01282269863611168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2024,19 +2024,19 @@
         <v>28781</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18968</v>
+        <v>19189</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44420</v>
+        <v>43701</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006838793100266628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004506998193462546</v>
+        <v>0.004559690439563941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01055494675832836</v>
+        <v>0.01038396804066128</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>1897140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1888286</v>
+        <v>1887382</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1903080</v>
+        <v>1902789</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9942060975516038</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9895660117648497</v>
+        <v>0.9890924989426058</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9973188690686211</v>
+        <v>0.9971663190871431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2219</v>
@@ -2074,19 +2074,19 @@
         <v>2282564</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2271058</v>
+        <v>2270793</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2289683</v>
+        <v>2289503</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9922944217768009</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.987292252558377</v>
+        <v>0.9871773013638887</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9953891482821676</v>
+        <v>0.9953109002583297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4091</v>
@@ -2095,19 +2095,19 @@
         <v>4179705</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4164066</v>
+        <v>4164785</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4189518</v>
+        <v>4189297</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9931612068997334</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9894450532416716</v>
+        <v>0.9896160319593387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9954930018065374</v>
+        <v>0.9954403095604361</v>
       </c>
     </row>
     <row r="24">
@@ -2441,19 +2441,19 @@
         <v>7722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16458</v>
+        <v>15846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03025511562821344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01162288853488263</v>
+        <v>0.01139472280925853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06448470476219499</v>
+        <v>0.06208639446519718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2462,19 +2462,19 @@
         <v>7716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2953</v>
+        <v>2931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15435</v>
+        <v>15403</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03731217384627899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01428066056939366</v>
+        <v>0.01417253226164169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07464007153381828</v>
+        <v>0.07448521629729515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2483,19 +2483,19 @@
         <v>15437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8737</v>
+        <v>7975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26126</v>
+        <v>25073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0334137542161826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0189107628101894</v>
+        <v>0.01726092430947871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0565483622958099</v>
+        <v>0.05426960230919484</v>
       </c>
     </row>
     <row r="5">
@@ -2512,19 +2512,19 @@
         <v>247499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238763</v>
+        <v>239375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252255</v>
+        <v>252313</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9697448843717865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.935515295237805</v>
+        <v>0.9379136055348021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9883771114651169</v>
+        <v>0.9886052771907415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -2533,19 +2533,19 @@
         <v>199073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191354</v>
+        <v>191386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203836</v>
+        <v>203858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9626878261537211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9253599284661813</v>
+        <v>0.9255147837027048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9857193394306064</v>
+        <v>0.9858274677383583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>408</v>
@@ -2554,19 +2554,19 @@
         <v>446572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435883</v>
+        <v>436936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>453272</v>
+        <v>454034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9665862457838174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9434516377041903</v>
+        <v>0.9457303976908055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9810892371898107</v>
+        <v>0.9827390756905214</v>
       </c>
     </row>
     <row r="6">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10590</v>
+        <v>9628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007248014847171755</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0391826249172075</v>
+        <v>0.03562154438228327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2679,19 +2679,19 @@
         <v>3017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8048</v>
+        <v>8124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01272337511086145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003765034776316472</v>
+        <v>0.003809202424716311</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03393506135822345</v>
+        <v>0.03425503107337551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2700,19 +2700,19 @@
         <v>4976</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1054</v>
+        <v>1930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12025</v>
+        <v>12338</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009806996896790562</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002077590063832201</v>
+        <v>0.003803082272595693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02369642675419606</v>
+        <v>0.02431417937353323</v>
       </c>
     </row>
     <row r="8">
@@ -2729,7 +2729,7 @@
         <v>268324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>259693</v>
+        <v>260655</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>270283</v>
@@ -2738,7 +2738,7 @@
         <v>0.9927519851528283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9608173750827922</v>
+        <v>0.9643784556177168</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2750,19 +2750,19 @@
         <v>234143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>229112</v>
+        <v>229036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236267</v>
+        <v>236257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9872766248891386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9660649386417766</v>
+        <v>0.9657449689266246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962349652236836</v>
+        <v>0.9961907975752837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>448</v>
@@ -2771,19 +2771,19 @@
         <v>502467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>495418</v>
+        <v>495105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>506389</v>
+        <v>505513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9901930031032095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9763035732458039</v>
+        <v>0.9756858206264668</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979224099361678</v>
+        <v>0.9961969177274043</v>
       </c>
     </row>
     <row r="9">
@@ -2875,19 +2875,19 @@
         <v>3866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9599</v>
+        <v>9585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00945506411900647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002346308165107389</v>
+        <v>0.002337831592855098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02347323591420902</v>
+        <v>0.02343954857201375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6016</v>
+        <v>4524</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005720811421988023</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03288791613602031</v>
+        <v>0.02473304863314782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2917,19 +2917,19 @@
         <v>4913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1923</v>
+        <v>1911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11672</v>
+        <v>10746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008300911110982117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003248499960248622</v>
+        <v>0.003228937705243945</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01972027178449016</v>
+        <v>0.01815704995754567</v>
       </c>
     </row>
     <row r="11">
@@ -2946,19 +2946,19 @@
         <v>405067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399334</v>
+        <v>399348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>407974</v>
+        <v>407977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9905449358809936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.976526764085791</v>
+        <v>0.9765604514279862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9976536918348926</v>
+        <v>0.9976621684071448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -2967,7 +2967,7 @@
         <v>181881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176911</v>
+        <v>178403</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>182927</v>
@@ -2976,7 +2976,7 @@
         <v>0.994279188578012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9671120838639807</v>
+        <v>0.9752669513668466</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2988,19 +2988,19 @@
         <v>586947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>580188</v>
+        <v>581114</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>589937</v>
+        <v>589949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9916990888890179</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9802797282155095</v>
+        <v>0.9818429500424543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967515000397513</v>
+        <v>0.9967710622947561</v>
       </c>
     </row>
     <row r="12">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4685</v>
+        <v>4716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001201733082267429</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006008009149197051</v>
+        <v>0.006048492205219087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3113,19 +3113,19 @@
         <v>6720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2794</v>
+        <v>2059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16243</v>
+        <v>15394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01288156761222712</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005354886990881697</v>
+        <v>0.003946344940772832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03113457891793855</v>
+        <v>0.02950671297160961</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3134,19 +3134,19 @@
         <v>7657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2903</v>
+        <v>2889</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17025</v>
+        <v>17600</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005883848235600399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002230303002034342</v>
+        <v>0.002219939792584369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01308171325507904</v>
+        <v>0.01352378199878104</v>
       </c>
     </row>
     <row r="14">
@@ -3163,7 +3163,7 @@
         <v>778781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>775033</v>
+        <v>775002</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>779718</v>
@@ -3172,7 +3172,7 @@
         <v>0.9987982669177325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9939919908508029</v>
+        <v>0.9939515077947809</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3184,19 +3184,19 @@
         <v>514983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>505460</v>
+        <v>506309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>518909</v>
+        <v>519644</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9871184323877729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9688654210820615</v>
+        <v>0.9704932870283904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946451130091183</v>
+        <v>0.9960536550592272</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1218</v>
@@ -3205,19 +3205,19 @@
         <v>1293764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1284396</v>
+        <v>1283821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1298518</v>
+        <v>1298532</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9941161517643996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.986918286744921</v>
+        <v>0.986476218001219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9977696969979657</v>
+        <v>0.9977800602074156</v>
       </c>
     </row>
     <row r="15">
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7864</v>
+        <v>7685</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006918298071145779</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02454849147719491</v>
+        <v>0.02398853566540899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3330,19 +3330,19 @@
         <v>5802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2259</v>
+        <v>1995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13250</v>
+        <v>13395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009901240688363953</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003854491132591719</v>
+        <v>0.003405132069245675</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02261340793879105</v>
+        <v>0.02286095776139944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3351,19 +3351,19 @@
         <v>8018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16259</v>
+        <v>15530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008846850402089082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003601077643910808</v>
+        <v>0.003605582730286138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01794014053135491</v>
+        <v>0.01713552643909178</v>
       </c>
     </row>
     <row r="17">
@@ -3380,7 +3380,7 @@
         <v>318135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>312487</v>
+        <v>312666</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>320351</v>
@@ -3389,7 +3389,7 @@
         <v>0.9930817019288543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9754515085228054</v>
+        <v>0.9760114643345909</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3401,19 +3401,19 @@
         <v>580142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>572694</v>
+        <v>572549</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>583685</v>
+        <v>583949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.990098759311636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9773865920612104</v>
+        <v>0.9771390422385995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961455088674084</v>
+        <v>0.9965948679307542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>841</v>
@@ -3422,19 +3422,19 @@
         <v>898277</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>890036</v>
+        <v>890765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>903031</v>
+        <v>903027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9911531495979109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.982059859468645</v>
+        <v>0.982864473560908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9963989223560892</v>
+        <v>0.9963944172697139</v>
       </c>
     </row>
     <row r="18">
@@ -3539,19 +3539,19 @@
         <v>4318</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1161</v>
+        <v>1074</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10917</v>
+        <v>10757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00556982700771354</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001497955920835422</v>
+        <v>0.001385564197935481</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01408294229101833</v>
+        <v>0.0138769486556628</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3560,19 +3560,19 @@
         <v>4318</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10350</v>
+        <v>10687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00491757056576772</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001205605560887595</v>
+        <v>0.001195338940577384</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01178762685176869</v>
+        <v>0.01217159288810213</v>
       </c>
     </row>
     <row r="20">
@@ -3602,19 +3602,19 @@
         <v>770883</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>764284</v>
+        <v>764444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>774040</v>
+        <v>774127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9944301729922864</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9859170577089816</v>
+        <v>0.9861230513443372</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9985020440791645</v>
+        <v>0.9986144358020645</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>827</v>
@@ -3623,19 +3623,19 @@
         <v>873704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>867672</v>
+        <v>867335</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>876963</v>
+        <v>876972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9950824294342323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9882123731482314</v>
+        <v>0.9878284071118979</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9987943944391123</v>
+        <v>0.9988046610594227</v>
       </c>
     </row>
     <row r="21">
@@ -3727,19 +3727,19 @@
         <v>16701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007813746960170263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -3748,19 +3748,19 @@
         <v>28619</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19484</v>
+        <v>18957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42596</v>
+        <v>42626</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01140339250765202</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007763245153804671</v>
+        <v>0.00755356201124602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01697228840472269</v>
+        <v>0.01698414492733078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -3769,19 +3769,19 @@
         <v>45320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32416</v>
+        <v>32788</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61445</v>
+        <v>62070</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009752400351847859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006975697423881272</v>
+        <v>0.007055748069569077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01322244588865078</v>
+        <v>0.01335688162648793</v>
       </c>
     </row>
     <row r="23">
@@ -3798,19 +3798,19 @@
         <v>2120625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2109216</v>
+        <v>2108816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2127697</v>
+        <v>2127890</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9921862530398298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9868480078215537</v>
+        <v>0.9866608251134279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9954947602397914</v>
+        <v>0.9955849996952858</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2311</v>
@@ -3819,19 +3819,19 @@
         <v>2481105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2467128</v>
+        <v>2467098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2490240</v>
+        <v>2490767</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.988596607492348</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9830277115952772</v>
+        <v>0.9830158550726691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9922367548461952</v>
+        <v>0.992446437988754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4290</v>
@@ -3840,19 +3840,19 @@
         <v>4601730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4585605</v>
+        <v>4584980</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4614634</v>
+        <v>4614262</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9902475996481521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9867775541113493</v>
+        <v>0.9866431183735115</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9930243025761186</v>
+        <v>0.9929442519304309</v>
       </c>
     </row>
     <row r="24">
@@ -4186,19 +4186,19 @@
         <v>4109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9337</v>
+        <v>9589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01875013394225406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004832896685364479</v>
+        <v>0.004616791860782187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04260722613970472</v>
+        <v>0.0437554116427213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4207,19 +4207,19 @@
         <v>6754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2847</v>
+        <v>2893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13864</v>
+        <v>13702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03267052342785443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01377290172584605</v>
+        <v>0.01399695000823326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06706659697814216</v>
+        <v>0.06628422388456294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4228,19 +4228,19 @@
         <v>10863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5914</v>
+        <v>5085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18536</v>
+        <v>18374</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02550717835854301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01388739836723866</v>
+        <v>0.01194063195433389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04352459308589587</v>
+        <v>0.04314455602887545</v>
       </c>
     </row>
     <row r="5">
@@ -4257,19 +4257,19 @@
         <v>215040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>209812</v>
+        <v>209560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218090</v>
+        <v>218137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9812498660577459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9573927738602953</v>
+        <v>0.9562445883572787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9951671033146355</v>
+        <v>0.9953832081392178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -4278,19 +4278,19 @@
         <v>199965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192855</v>
+        <v>193017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203872</v>
+        <v>203826</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9673294765721455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9329334030218572</v>
+        <v>0.933715776115437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9862270982741539</v>
+        <v>0.9860030499917667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>392</v>
@@ -4299,19 +4299,19 @@
         <v>415005</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>407332</v>
+        <v>407494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>419954</v>
+        <v>420783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.974492821641457</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9564754069141042</v>
+        <v>0.9568554439711245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861126016327616</v>
+        <v>0.9880593680456662</v>
       </c>
     </row>
     <row r="6">
@@ -4403,19 +4403,19 @@
         <v>3101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8748</v>
+        <v>7968</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01355546244096481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003800474184859332</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03824130704913249</v>
+        <v>0.03483100855247762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4424,19 +4424,19 @@
         <v>3724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10087</v>
+        <v>11038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01529068821819225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004204501675099882</v>
+        <v>0.004227090146044117</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04141435022421937</v>
+        <v>0.04532140008030367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4445,19 +4445,19 @@
         <v>6825</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3007</v>
+        <v>2986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14833</v>
+        <v>14666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01445025340617417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006367406670050181</v>
+        <v>0.00632184995176301</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03140469970748134</v>
+        <v>0.0310519053303946</v>
       </c>
     </row>
     <row r="8">
@@ -4474,19 +4474,19 @@
         <v>225662</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>220015</v>
+        <v>220795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227894</v>
+        <v>228763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9864445375590352</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9617586929508676</v>
+        <v>0.9651689914475224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961995258151407</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>231</v>
@@ -4495,19 +4495,19 @@
         <v>239834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>233471</v>
+        <v>232520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>242534</v>
+        <v>242528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9847093117818078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9585856497757808</v>
+        <v>0.9546785999196965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9957954983249001</v>
+        <v>0.9957729098539558</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>446</v>
@@ -4516,19 +4516,19 @@
         <v>465496</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>457488</v>
+        <v>457655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>469314</v>
+        <v>469335</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9855497465938259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9685953002925187</v>
+        <v>0.9689480946696054</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936325933299498</v>
+        <v>0.9936781500482369</v>
       </c>
     </row>
     <row r="9">
@@ -4620,19 +4620,19 @@
         <v>3803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9040</v>
+        <v>8850</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01150616585861289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003017478841071129</v>
+        <v>0.00302472905632575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02735418965811975</v>
+        <v>0.02678031262926363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4654,19 +4654,19 @@
         <v>3803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8937</v>
+        <v>8767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008394006673724355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002211156224655446</v>
+        <v>0.002186445617043556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0197273615948478</v>
+        <v>0.0193524559585841</v>
       </c>
     </row>
     <row r="11">
@@ -4683,19 +4683,19 @@
         <v>326675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321438</v>
+        <v>321628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329481</v>
+        <v>329478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884938341413871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9726458103418802</v>
+        <v>0.9732196873707363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969825211589289</v>
+        <v>0.9969752709436742</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -4717,19 +4717,19 @@
         <v>449203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>444069</v>
+        <v>444239</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>452004</v>
+        <v>452016</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9916059933262756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9802726384051522</v>
+        <v>0.980647544041416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9977888437753446</v>
+        <v>0.9978135543829565</v>
       </c>
     </row>
     <row r="12">
@@ -4821,19 +4821,19 @@
         <v>3748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9645</v>
+        <v>11515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005884954747229654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001626688968262683</v>
+        <v>0.00163133279936672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01514496530842302</v>
+        <v>0.01808200431983143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4842,19 +4842,19 @@
         <v>3006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7840</v>
+        <v>8115</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005752597440967614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00170333364598556</v>
+        <v>0.001712229302145915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01500212734401886</v>
+        <v>0.01552918717424869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4863,19 +4863,19 @@
         <v>6754</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2599</v>
+        <v>2128</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14811</v>
+        <v>14245</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005825297347142017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002241365469375189</v>
+        <v>0.00183523983978743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0127746613646987</v>
+        <v>0.01228638105605025</v>
       </c>
     </row>
     <row r="14">
@@ -4892,19 +4892,19 @@
         <v>633073</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>627176</v>
+        <v>625306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>635785</v>
+        <v>635782</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9941150452527704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9848550346915769</v>
+        <v>0.9819179956801682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983733110317373</v>
+        <v>0.9983686672006333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>502</v>
@@ -4913,19 +4913,19 @@
         <v>519568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>514734</v>
+        <v>514459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>521684</v>
+        <v>521679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9942474025590324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9849978726559812</v>
+        <v>0.9844708128257513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9982966663540145</v>
+        <v>0.998287770697854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1127</v>
@@ -4934,19 +4934,19 @@
         <v>1152641</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1144584</v>
+        <v>1145150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1156796</v>
+        <v>1157267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.994174702652858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872253386353019</v>
+        <v>0.9877136189439497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9977586345306257</v>
+        <v>0.9981647601602126</v>
       </c>
     </row>
     <row r="15">
@@ -5038,19 +5038,19 @@
         <v>2858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7666</v>
+        <v>7831</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007606124722338754</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002158000193320183</v>
+        <v>0.002142008845801215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02040068355617645</v>
+        <v>0.02084067718304795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5059,19 +5059,19 @@
         <v>4269</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9593</v>
+        <v>10514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008537140650477098</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002061094613254683</v>
+        <v>0.002094049445004044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01918422705472851</v>
+        <v>0.02102654640972476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5080,19 +5080,19 @@
         <v>7127</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3079</v>
+        <v>2938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13523</v>
+        <v>14094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008137701927765787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003515739780499358</v>
+        <v>0.003354230967742588</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01544070787793473</v>
+        <v>0.01609218220795092</v>
       </c>
     </row>
     <row r="17">
@@ -5109,19 +5109,19 @@
         <v>372893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>368085</v>
+        <v>367920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>374940</v>
+        <v>374946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9923938752776612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9795993164438241</v>
+        <v>0.9791593228169524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978419998066799</v>
+        <v>0.9978579911541988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>469</v>
@@ -5130,19 +5130,19 @@
         <v>495785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>490461</v>
+        <v>489540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>499023</v>
+        <v>499007</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9914628593495229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9808157729452716</v>
+        <v>0.9789734535902753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9979389053867453</v>
+        <v>0.997905950554996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>836</v>
@@ -5151,19 +5151,19 @@
         <v>868678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>862282</v>
+        <v>861711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>872726</v>
+        <v>872867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9918622980722342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9845592921220653</v>
+        <v>0.9839078177920498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964842602195007</v>
+        <v>0.9966457690322573</v>
       </c>
     </row>
     <row r="18">
@@ -5268,19 +5268,19 @@
         <v>4786</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1126</v>
+        <v>1093</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11237</v>
+        <v>10793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006559001720845971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001542917718029971</v>
+        <v>0.001497896895883535</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01539962629990128</v>
+        <v>0.01479129835291784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -5289,19 +5289,19 @@
         <v>4786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1255</v>
+        <v>1115</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11838</v>
+        <v>11944</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005735054158782005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001503536653926905</v>
+        <v>0.001335838125593967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01418490605949951</v>
+        <v>0.01431177428803117</v>
       </c>
     </row>
     <row r="20">
@@ -5331,19 +5331,19 @@
         <v>724906</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>718455</v>
+        <v>718899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>728566</v>
+        <v>728599</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.993440998279154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9846003737000995</v>
+        <v>0.9852087016470822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9984570822819702</v>
+        <v>0.9985021031041165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>745</v>
@@ -5352,19 +5352,19 @@
         <v>829740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>822688</v>
+        <v>822582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>833271</v>
+        <v>833411</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9942649458412179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9858150939404999</v>
+        <v>0.9856882257119677</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9984964633460731</v>
+        <v>0.998664161874406</v>
       </c>
     </row>
     <row r="21">
@@ -5456,19 +5456,19 @@
         <v>17618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9892</v>
+        <v>10935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27202</v>
+        <v>28484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009293335500304176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005218020989971872</v>
+        <v>0.005768275783217179</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01434880811135511</v>
+        <v>0.01502491934234823</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -5477,19 +5477,19 @@
         <v>22539</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13951</v>
+        <v>14027</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33521</v>
+        <v>34617</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009693686025690564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005999999290575015</v>
+        <v>0.006032777711808534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01441692508108782</v>
+        <v>0.01488842531648272</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -5498,19 +5498,19 @@
         <v>40157</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28171</v>
+        <v>29419</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53651</v>
+        <v>55367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009513871496621114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006674073372928072</v>
+        <v>0.006969878149175616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01271071489160267</v>
+        <v>0.013117254182003</v>
       </c>
     </row>
     <row r="23">
@@ -5527,19 +5527,19 @@
         <v>1878178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1868594</v>
+        <v>1867312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1885904</v>
+        <v>1884861</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9907066644996958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9856511918886449</v>
+        <v>0.9849750806576513</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994781979010028</v>
+        <v>0.9942317242167827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2151</v>
@@ -5548,19 +5548,19 @@
         <v>2302586</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2291604</v>
+        <v>2290508</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2311174</v>
+        <v>2311098</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9903063139743095</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9855830749189123</v>
+        <v>0.9851115746835173</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9940000007094251</v>
+        <v>0.9939672222881916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3975</v>
@@ -5569,19 +5569,19 @@
         <v>4180764</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4167270</v>
+        <v>4165554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4192750</v>
+        <v>4191502</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9904861285033789</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9872892851083973</v>
+        <v>0.9868827458179972</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9933259266270721</v>
+        <v>0.9930301218508244</v>
       </c>
     </row>
     <row r="24">
@@ -5915,19 +5915,19 @@
         <v>8360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4268</v>
+        <v>4314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14434</v>
+        <v>14318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1191335274762906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06082090531182912</v>
+        <v>0.06147674701658853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2056852335263167</v>
+        <v>0.2040229708806902</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5936,19 +5936,19 @@
         <v>9318</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5268</v>
+        <v>5165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15629</v>
+        <v>14888</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1167544314328079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06600567729150367</v>
+        <v>0.06471255127346734</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1958376375663735</v>
+        <v>0.1865464624628995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -5957,19 +5957,19 @@
         <v>17678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11023</v>
+        <v>11713</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26432</v>
+        <v>26920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1178675896776467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07349111204024718</v>
+        <v>0.07809438579390167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1762323729594502</v>
+        <v>0.179486235140725</v>
       </c>
     </row>
     <row r="5">
@@ -5986,19 +5986,19 @@
         <v>61817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55743</v>
+        <v>55859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65909</v>
+        <v>65863</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8808664725237091</v>
+        <v>0.8808664725237094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7943147664736829</v>
+        <v>0.7959770291193093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.939179094688171</v>
+        <v>0.9385232529834112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -6007,19 +6007,19 @@
         <v>70490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64179</v>
+        <v>64920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74540</v>
+        <v>74643</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8832455685671921</v>
+        <v>0.8832455685671923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8041623624336263</v>
+        <v>0.8134535375371003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.933994322708496</v>
+        <v>0.9352874487265329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -6028,19 +6028,19 @@
         <v>132307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123553</v>
+        <v>123065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138962</v>
+        <v>138272</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8821324103223535</v>
+        <v>0.8821324103223533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8237676270405501</v>
+        <v>0.8205137648592751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9265088879597528</v>
+        <v>0.9219056142060985</v>
       </c>
     </row>
     <row r="6">
@@ -6132,19 +6132,19 @@
         <v>6945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3641</v>
+        <v>3290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12392</v>
+        <v>12165</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1071916809135508</v>
+        <v>0.1071916809135509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05619968241423521</v>
+        <v>0.05077514819908113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1912628748415998</v>
+        <v>0.1877558251376642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -6153,19 +6153,19 @@
         <v>11519</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7036</v>
+        <v>7011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16655</v>
+        <v>17231</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1545079412529727</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09437446221613034</v>
+        <v>0.09403852807510461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2234060120586272</v>
+        <v>0.2311335286456344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -6174,19 +6174,19 @@
         <v>18464</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12429</v>
+        <v>12765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26101</v>
+        <v>26077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1325069306935082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08919947001886137</v>
+        <v>0.0916074384128724</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1873136008055288</v>
+        <v>0.1871429856111995</v>
       </c>
     </row>
     <row r="8">
@@ -6203,19 +6203,19 @@
         <v>57847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52400</v>
+        <v>52627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61151</v>
+        <v>61502</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8928083190864492</v>
+        <v>0.8928083190864491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8087371251584003</v>
+        <v>0.8122441748623361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9438003175857649</v>
+        <v>0.949224851800919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -6224,19 +6224,19 @@
         <v>63033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57897</v>
+        <v>57321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67516</v>
+        <v>67541</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8454920587470274</v>
+        <v>0.8454920587470275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7765939879413728</v>
+        <v>0.7688664713543656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9056255377838698</v>
+        <v>0.9059614719248957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>140</v>
@@ -6245,19 +6245,19 @@
         <v>120880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113243</v>
+        <v>113267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126915</v>
+        <v>126579</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8674930693064918</v>
+        <v>0.8674930693064917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8126863991944712</v>
+        <v>0.8128570143888005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9108005299811386</v>
+        <v>0.9083925615871279</v>
       </c>
     </row>
     <row r="9">
@@ -6349,19 +6349,19 @@
         <v>13876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8480</v>
+        <v>8804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20502</v>
+        <v>21111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1453196910390503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08880811882717944</v>
+        <v>0.09220680665248587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2147160885209491</v>
+        <v>0.2210871635508863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -6370,19 +6370,19 @@
         <v>10791</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6668</v>
+        <v>7059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16293</v>
+        <v>15573</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3017164260720456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1864435807052704</v>
+        <v>0.1973910730689367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.45555742726147</v>
+        <v>0.4354418248981797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -6391,19 +6391,19 @@
         <v>24666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17951</v>
+        <v>17420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33538</v>
+        <v>32995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1879362550579979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1367670865394201</v>
+        <v>0.1327283696784022</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2555264031931989</v>
+        <v>0.2513942218474006</v>
       </c>
     </row>
     <row r="11">
@@ -6420,19 +6420,19 @@
         <v>81609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74983</v>
+        <v>74374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87005</v>
+        <v>86681</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8546803089609497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7852839114790507</v>
+        <v>0.7789128364491136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9111918811728206</v>
+        <v>0.9077931933475142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -6441,19 +6441,19 @@
         <v>24973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19471</v>
+        <v>20191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29096</v>
+        <v>28705</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6982835739279545</v>
+        <v>0.6982835739279543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5444425727385303</v>
+        <v>0.5645581751018208</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8135564192947299</v>
+        <v>0.8026089269310636</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>116</v>
@@ -6462,19 +6462,19 @@
         <v>106583</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>97711</v>
+        <v>98254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113298</v>
+        <v>113829</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8120637449420021</v>
+        <v>0.8120637449420023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7444735968068013</v>
+        <v>0.7486057781525993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8632329134605801</v>
+        <v>0.8672716303215977</v>
       </c>
     </row>
     <row r="12">
@@ -6566,19 +6566,19 @@
         <v>35695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26074</v>
+        <v>25699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51821</v>
+        <v>49047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1732296575701642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.126538704262156</v>
+        <v>0.1247194542305232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2514937276444453</v>
+        <v>0.2380293231787441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -6587,19 +6587,19 @@
         <v>16370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11332</v>
+        <v>11855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22321</v>
+        <v>22398</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1074396016643465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07437478776293993</v>
+        <v>0.07780407469115244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1464937408093286</v>
+        <v>0.1469991077671796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -6608,19 +6608,19 @@
         <v>52065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42103</v>
+        <v>40331</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67739</v>
+        <v>64520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1452619347755713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1174684134426852</v>
+        <v>0.1125242390541209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1889927159645846</v>
+        <v>0.1800119846317967</v>
       </c>
     </row>
     <row r="14">
@@ -6637,19 +6637,19 @@
         <v>170359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154233</v>
+        <v>157007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>179980</v>
+        <v>180355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8267703424298358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7485062723555548</v>
+        <v>0.7619706768212559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.873461295737844</v>
+        <v>0.8752805457694769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -6658,19 +6658,19 @@
         <v>135997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130046</v>
+        <v>129969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141035</v>
+        <v>140512</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8925603983356536</v>
+        <v>0.8925603983356534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8535062591906714</v>
+        <v>0.8530008922328206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9256252122370601</v>
+        <v>0.9221959253088476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -6679,19 +6679,19 @@
         <v>306356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290682</v>
+        <v>293901</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>316318</v>
+        <v>318090</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8547380652244287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8110072840354156</v>
+        <v>0.8199880153682032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8825315865573147</v>
+        <v>0.8874757609458791</v>
       </c>
     </row>
     <row r="15">
@@ -6783,19 +6783,19 @@
         <v>13559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8178</v>
+        <v>8640</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20797</v>
+        <v>21376</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1661337620625323</v>
+        <v>0.1661337620625322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1002010360627887</v>
+        <v>0.1058687626461423</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.254830524917166</v>
+        <v>0.2619267739207259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -6804,19 +6804,19 @@
         <v>34354</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26745</v>
+        <v>27439</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42804</v>
+        <v>43080</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1634596847122794</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1272569590970502</v>
+        <v>0.1305570382838772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2036693069074208</v>
+        <v>0.2049836336695109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -6825,19 +6825,19 @@
         <v>47912</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38237</v>
+        <v>39508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58822</v>
+        <v>58345</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1642076418383659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1310473072109773</v>
+        <v>0.135405299577758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2015976288705855</v>
+        <v>0.1999637615923987</v>
       </c>
     </row>
     <row r="17">
@@ -6854,19 +6854,19 @@
         <v>68053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60815</v>
+        <v>60236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73434</v>
+        <v>72972</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8338662379374677</v>
+        <v>0.8338662379374676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7451694750828344</v>
+        <v>0.7380732260792736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8997989639372114</v>
+        <v>0.8941312373538577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -6875,19 +6875,19 @@
         <v>175811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167361</v>
+        <v>167085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183420</v>
+        <v>182726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8365403152877205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.79633069309258</v>
+        <v>0.795016366330489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8727430409029499</v>
+        <v>0.8694429617161228</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>328</v>
@@ -6896,19 +6896,19 @@
         <v>243865</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232955</v>
+        <v>233432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253540</v>
+        <v>252269</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.835792358161634</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7984023711294146</v>
+        <v>0.8000362384076014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8689526927890225</v>
+        <v>0.8645947004222421</v>
       </c>
     </row>
     <row r="18">
@@ -7000,19 +7000,19 @@
         <v>3959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12102</v>
+        <v>12181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1620319805663079</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02705815681502425</v>
+        <v>0.02375334079010106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4952718486069568</v>
+        <v>0.4984945671719896</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -7021,19 +7021,19 @@
         <v>45747</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36214</v>
+        <v>36491</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55020</v>
+        <v>55347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2064377859027216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1634172638458347</v>
+        <v>0.1646684181768698</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2482799842450442</v>
+        <v>0.2497588031139899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -7042,19 +7042,19 @@
         <v>49707</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39956</v>
+        <v>39811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61244</v>
+        <v>62209</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2020275893270926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1623962475603226</v>
+        <v>0.1618079437415372</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2489195756107478</v>
+        <v>0.2528428518503572</v>
       </c>
     </row>
     <row r="20">
@@ -7071,19 +7071,19 @@
         <v>20477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12334</v>
+        <v>12255</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23775</v>
+        <v>23856</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8379680194336921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5047281513930414</v>
+        <v>0.5015054328280076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9729418431849757</v>
+        <v>0.9762466592098989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>242</v>
@@ -7092,19 +7092,19 @@
         <v>175856</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166583</v>
+        <v>166256</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185389</v>
+        <v>185112</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7935622140972783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7517200157549558</v>
+        <v>0.7502411968860101</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8365827361541652</v>
+        <v>0.8353315818231303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>255</v>
@@ -7113,19 +7113,19 @@
         <v>196332</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184795</v>
+        <v>183830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206083</v>
+        <v>206228</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7979724106729074</v>
+        <v>0.7979724106729076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7510804243892524</v>
+        <v>0.7471571481496427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8376037524396773</v>
+        <v>0.8381920562584627</v>
       </c>
     </row>
     <row r="21">
@@ -7217,19 +7217,19 @@
         <v>82394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66834</v>
+        <v>68681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100789</v>
+        <v>102860</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1518627418176057</v>
+        <v>0.1518627418176058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1231834261960226</v>
+        <v>0.1265875390017323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1857670718447104</v>
+        <v>0.1895837786388903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -7238,19 +7238,19 @@
         <v>128099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113585</v>
+        <v>113398</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146162</v>
+        <v>147077</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1654464388784996</v>
+        <v>0.1654464388784995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1467017255477657</v>
+        <v>0.1464604811330305</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.188776944180102</v>
+        <v>0.1899577319355753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -7259,19 +7259,19 @@
         <v>210492</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>189620</v>
+        <v>189536</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234559</v>
+        <v>235044</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.159849674969358</v>
+        <v>0.1598496749693581</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1439991863911158</v>
+        <v>0.1439350828404465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.178125641958303</v>
+        <v>0.1784942736877296</v>
       </c>
     </row>
     <row r="23">
@@ -7288,19 +7288,19 @@
         <v>460161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>441766</v>
+        <v>439695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>475721</v>
+        <v>473874</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8481372581823942</v>
+        <v>0.8481372581823944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8142329281552895</v>
+        <v>0.8104162213611095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8768165738039774</v>
+        <v>0.873412460998267</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>897</v>
@@ -7309,19 +7309,19 @@
         <v>646161</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>628098</v>
+        <v>627183</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>660675</v>
+        <v>660862</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8345535611215004</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8112230558198982</v>
+        <v>0.8100422680644247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8532982744522344</v>
+        <v>0.8535395188669694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1345</v>
@@ -7330,19 +7330,19 @@
         <v>1106323</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1082256</v>
+        <v>1081771</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1127195</v>
+        <v>1127279</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8401503250306419</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.821874358041697</v>
+        <v>0.8215057263122705</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8560008136088841</v>
+        <v>0.8560649171595535</v>
       </c>
     </row>
     <row r="24">
